--- a/workspace/gradient_edf_local_validation/gradient_edf_local_validation_times.xlsx
+++ b/workspace/gradient_edf_local_validation/gradient_edf_local_validation_times.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>EDF-L HOPA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>EDF-L GDPA</t>
         </is>
       </c>
@@ -455,13 +460,16 @@
         <v>0.5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.002874823459424079</v>
+        <v>0.006705209990032017</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001324558355845511</v>
+        <v>0.003213256003800779</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1419826837908477</v>
+        <v>0.01901740193367004</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.2974851039052009</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +477,16 @@
         <v>0.5210526315789473</v>
       </c>
       <c r="B3" t="n">
-        <v>0.003108064935076982</v>
+        <v>0.007528988011181355</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00186863244860433</v>
+        <v>0.004287699987180531</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1958340398222208</v>
+        <v>0.02039281999692321</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4313589386455715</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +494,16 @@
         <v>0.5421052631578948</v>
       </c>
       <c r="B4" t="n">
-        <v>0.005954365108627826</v>
+        <v>0.01559059995692223</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001502513252198696</v>
+        <v>0.003921646007802338</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5367900617420673</v>
+        <v>0.04478444584645331</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.240971662830561</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +511,16 @@
         <v>0.5631578947368421</v>
       </c>
       <c r="B5" t="n">
-        <v>0.004986269217915833</v>
+        <v>0.01255253586918116</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001564468400320038</v>
+        <v>0.004062746013514698</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8214037455338985</v>
+        <v>0.03804680638946593</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.8349620536156</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +528,16 @@
         <v>0.5842105263157895</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0346541510312818</v>
+        <v>0.07532954635564237</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001883341708453372</v>
+        <v>0.004089272010605782</v>
       </c>
       <c r="D6" t="n">
-        <v>1.617313882093877</v>
+        <v>0.2435152406152338</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.563859746567905</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +545,16 @@
         <v>0.6052631578947368</v>
       </c>
       <c r="B7" t="n">
-        <v>0.00625379428267479</v>
+        <v>0.01044674599543214</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002970444109523669</v>
+        <v>0.006859354092739522</v>
       </c>
       <c r="D7" t="n">
-        <v>2.626259599421173</v>
+        <v>0.0395663139782846</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.903495343886316</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +562,16 @@
         <v>0.6263157894736842</v>
       </c>
       <c r="B8" t="n">
-        <v>0.007144138384610414</v>
+        <v>0.01488286394858733</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002505640004528686</v>
+        <v>0.006356798009946942</v>
       </c>
       <c r="D8" t="n">
-        <v>3.68513360908255</v>
+        <v>0.06007439993321895</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.917017914950847</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +579,16 @@
         <v>0.6473684210526316</v>
       </c>
       <c r="B9" t="n">
-        <v>0.009915962556842715</v>
+        <v>0.0160774539783597</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004975030771456659</v>
+        <v>0.01183786010020412</v>
       </c>
       <c r="D9" t="n">
-        <v>3.5326205640845</v>
+        <v>0.07376340391114354</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8.323454680964351</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +596,16 @@
         <v>0.6684210526315789</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.04712870353832841</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.007191953973378986</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.2668349819630385</v>
+      </c>
+      <c r="E10" t="n">
+        <v>44.01154752969742</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +613,16 @@
         <v>0.6894736842105263</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.01758691594237462</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.007702202001819387</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.253325868938118</v>
+      </c>
+      <c r="E11" t="n">
+        <v>17.12494585752487</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +630,16 @@
         <v>0.7105263157894737</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.01499161798041314</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.006982235978357494</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>4.164473375100642</v>
+      </c>
+      <c r="E12" t="n">
+        <v>21.03863808274269</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +647,16 @@
         <v>0.7315789473684211</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.01602638183394447</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.009117024013539777</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>3.457636981569231</v>
+      </c>
+      <c r="E13" t="n">
+        <v>30.58552459359169</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +664,16 @@
         <v>0.7526315789473684</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.02295655993744731</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.007218307995935902</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>11.347207733877</v>
+      </c>
+      <c r="E14" t="n">
+        <v>33.06925141692162</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +681,16 @@
         <v>0.7736842105263158</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.01387708600843325</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.008675455967895686</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>15.40075955934823</v>
+      </c>
+      <c r="E15" t="n">
+        <v>43.04863605260849</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +698,16 @@
         <v>0.7947368421052632</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.01470177997369319</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.007691459988709539</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>26.54123341169208</v>
+      </c>
+      <c r="E16" t="n">
+        <v>49.77835344791412</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +715,16 @@
         <v>0.8157894736842105</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.0136604980006814</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.00799562799045816</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>45.0160842666775</v>
+      </c>
+      <c r="E17" t="n">
+        <v>62.70932134628296</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +732,16 @@
         <v>0.8368421052631578</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.01282558211125433</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.008138219979591667</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>72.68288652613759</v>
+      </c>
+      <c r="E18" t="n">
+        <v>85.93666368961334</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +749,16 @@
         <v>0.8578947368421053</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.01504788205493241</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.009719840115867556</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>104.2913051120937</v>
+      </c>
+      <c r="E19" t="n">
+        <v>135.0216256427765</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +766,16 @@
         <v>0.8789473684210527</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.01705668007954955</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.01102757192915305</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>156.2174384539574</v>
+      </c>
+      <c r="E20" t="n">
+        <v>205.0270331001282</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +783,16 @@
         <v>0.9</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.02221864799270406</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.01178647800348699</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>302.7233975425362</v>
+      </c>
+      <c r="E21" t="n">
+        <v>418.5600751304626</v>
       </c>
     </row>
   </sheetData>
